--- a/Test_AddSubjectExcel.xlsx
+++ b/Test_AddSubjectExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive - Ho Chi Minh city University of Food Industry\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CongNghe.Net\ThiTracNghiem\ThiTracNghiem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4151E29B-9A07-4231-A1B4-61A48B7227BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E63ACE-2327-46AE-8622-B162DC9F317A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,28 +310,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -346,18 +331,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -372,22 +351,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,495 +650,495 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>3</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>4</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>2</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
